--- a/biology/Médecine/Michel_Savonarole/Michel_Savonarole.xlsx
+++ b/biology/Médecine/Michel_Savonarole/Michel_Savonarole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Savonarole (en italien : Giovanni Michele Savonarola) (Padoue, 1385 - Ferrare, 1468) est un humaniste, médecin, écrivain et scientifique italien, et grand-père de Jérôme Savonarole.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michele Savonarole fait partie des médecins les plus renommés de son époque.
 Docteur en médecine, il enseigne de 1419 à 1437 à l'Université de Padoue puis, le 7 septembre 1440, s’installe à Ferrare où il devient médecin personnel de Nicolas III d’Este, marquis de Ferrare.
@@ -551,7 +565,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Practica Maior (Practica de aegritudinibus a capite usque ad pedes), publié en 1479,
 De regimine pregnantibus et noviter natorum usque ad septennium, (Trattato ginecologico-pediatrico) (1450),
